--- a/cjl-knihy.xlsx
+++ b/cjl-knihy.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6. Maturitka\CJL\excelTable\excelTabulkaLiteraturyNaMaturitu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6. Maturitka\seanceZapisy\excelTabulkaLiteraturyNaMaturitu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FB52E2-7C40-493B-9AA5-78A17BF8081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2B565B-8998-41F1-820A-E6049A00C712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{94871187-8663-4E32-9055-774820EF964F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{94871187-8663-4E32-9055-774820EF964F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Tisk" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="148">
   <si>
     <t>Název</t>
   </si>
@@ -477,6 +501,9 @@
   </si>
   <si>
     <t>Celkem stran</t>
+  </si>
+  <si>
+    <t>Název knihy</t>
   </si>
 </sst>
 </file>
@@ -923,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08A221A-4539-429B-94E8-A725B3A71C58}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +965,7 @@
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1233,7 +1260,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1250,7 +1277,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1266,8 +1293,15 @@
       <c r="E18" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18">
+        <f>COUNTIF($G$3:$G$73, "Ano")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1286,8 +1320,15 @@
       <c r="G19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19">
+        <f>SUMIF($G$3:$G$73, "Ano", $D$3:$D$73)</f>
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1307,7 +1348,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1324,7 +1365,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1341,7 +1382,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1361,7 +1402,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1378,7 +1419,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1401,7 +1442,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1418,7 +1459,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1435,7 +1476,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1452,7 +1493,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1469,7 +1510,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1486,7 +1527,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>55</v>
       </c>
@@ -1498,7 +1539,7 @@
         <v>Splněn počet</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2238,24 +2279,6 @@
       </c>
       <c r="E73" s="4" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H74" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I74">
-        <f>COUNTIF($G$3:$G$73, "Ano")</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H75" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I75">
-        <f>SUMIF($G$3:$G$73, "Ano", $D$3:$D$73)</f>
-        <v>1748</v>
       </c>
     </row>
   </sheetData>
@@ -2276,7 +2299,7 @@
       <formula>NOT(ISERROR(SEARCH("""Nesplněn počet""",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74:I74">
+  <conditionalFormatting sqref="J18:K18">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>20</formula>
     </cfRule>
@@ -2356,4 +2379,266 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED5601A-EFF2-4866-801D-2AC2276BEE6F}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="str" cm="1">
+        <f t="array" ref="B2:C21">_xlfn._xlws.FILTER(Main!B2:C73,Main!G2:G73="Ano","Žádné knihy nebyly vybrány")</f>
+        <v>W. Shakespeare</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <v>Hamlet</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <v>Moliére</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <v>Lakomec</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <v>N. V. Gogol</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <v>Revizor</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <v>A. E. Poe</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <v>Jáma a kyvadlo</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>K. H. Borovský</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <v>Tyrolské elegie</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>K. H. Borovský</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <v>Král Lávra</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <v>K. J. Erben</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <v>Kytice</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <v>J. Neruda</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <v>Malostranské povídky</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <v>E. Hemingway</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <v>Stařec a moře</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <v>J. Steinbeck</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <v>O myších a lidech</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <v>R. Rolland</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <v>Petr a Lucie</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <v>G. Orwell</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <v>Farma zvířat</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <v>G. Orwell</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <v>V. Dyk</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <v>Krysař</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <v>J. Wolker</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <v>Balada o námořníkovi</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <v>L. Fuks</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <v>Spalovač mrtvol</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <v>O. Pavel</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <v>Smrt krásných srnců</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <v>K. Čapek</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <v>R.U.R.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <v>K. Čapek</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <v>Bílá nemoc</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <v>F. Kafka</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <v>Proměna</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93413B67-3BB4-4FF7-A510-4832D8BB1A1A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>